--- a/2015.xlsx
+++ b/2015.xlsx
@@ -5031,9 +5031,9 @@
   </sheetPr>
   <dimension ref="A1:P547"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -5045,7 +5045,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="53.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="14.45"/>
   </cols>
